--- a/static/plantillas/plantilla_prospectos.xlsx
+++ b/static/plantillas/plantilla_prospectos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,295 +436,317 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id_cliente</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_solicitud</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>telefono</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>indicativo_telefono</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>apellido</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>correo_electronico</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ciudad_origen</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>destino</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fecha_ida</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>fecha_vuelta</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pasajeros_adultos</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>pasajeros_ninos</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pasajeros_infantes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>medio_ingreso</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>estado</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>observaciones</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>comentarios</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>agente_asignado</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>fecha_nacimiento</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>numero_identificacion</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>fecha_compra</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>direccion</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>3001234567</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Juan</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Perez</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>juan.perez@email.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bogota</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Cancun</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>15/02/2026</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>22/02/2026</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>REDES</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>nuevo</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Cliente interesado en paquete todo incluido</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>agente1</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>15/05/1985</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1234567890</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>CL-20250105-0001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SOL-20250105-0001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3009876543</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Maria</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>maria.gonzalez@email.com</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Medellin</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Cartagena</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>10/01/2025</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>15/01/2025</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>REFERIDO</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>ganado</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Venta historica - Ya viajo</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Cliente satisfecho</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>agente1</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>20/08/1990</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>9876543210</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>05/01/2025</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>CALLE 123 #45-67 APT 801</t>
         </is>
